--- a/data/ethnic_breakdown.xlsx
+++ b/data/ethnic_breakdown.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B6B64D-E0DC-4CD1-87C7-305EC2F20DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222AD9DA-8650-4AB0-9738-B335AAD5E680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="2250" windowWidth="27555" windowHeight="13005" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="1485" windowWidth="18990" windowHeight="10440" tabRatio="747" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLB Team Overall" sheetId="2" r:id="rId1"/>
-    <sheet name="HAS MLB Team" sheetId="4" r:id="rId2"/>
-    <sheet name="NO MLB Team" sheetId="5" r:id="rId3"/>
+    <sheet name="NO MLB Team" sheetId="5" r:id="rId2"/>
+    <sheet name="HAS MLB Team" sheetId="4" r:id="rId3"/>
+    <sheet name="PBI ethnic master" sheetId="6" r:id="rId4"/>
+    <sheet name="PBI ethnic white" sheetId="11" r:id="rId5"/>
+    <sheet name="PBI ethnic AA" sheetId="8" r:id="rId6"/>
+    <sheet name="PBU ethnic latin" sheetId="9" r:id="rId7"/>
+    <sheet name="PBI ethnic other" sheetId="10" r:id="rId8"/>
+    <sheet name="PBI 2" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
   <si>
     <t>Phoenix, AZ</t>
   </si>
@@ -164,14 +170,100 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Nashville</t>
+  </si>
+  <si>
+    <t>Oklahoma City</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>Latin American</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>MLB CITY</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVG </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -199,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" indent="1"/>
@@ -211,6 +303,8 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +610,7 @@
   <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,73 +1150,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6590C7-CE80-4590-9074-D181F1A66E7A}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD183E-9466-4130-9047-DE9CE4B42E04}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.37809999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.2651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.22489999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.13189999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD183E-9466-4130-9047-DE9CE4B42E04}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,212 +1186,1433 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.46751526398622012</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.2801652765460079E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.33093860058338931</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2:E11" si="0">1-(B2+C2+D2)</f>
+        <v>0.12874448266493055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.39797041393753058</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.33989105734527469</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.15840685291627679</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10373167580091791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.11386646473860799</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.5535205300906758E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.81535538895506654</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5242941005418693E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.68511427308370443</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.15078006510151051</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.6283509469034769E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7822152345750304E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.4760618336996752</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.2925178752515919</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.1196501649825237</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11177012606620917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.60702217951797577</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.2396332772840099</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.6473696853230841E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6870846344783472E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.69834442020506027</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1420437139513806</v>
+      </c>
+      <c r="D8" s="3">
+        <v>8.2718893446327407E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6892972397231696E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.51285896874928039</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.1221573244593879</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.20609901434723529</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15888469244409642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.65837971591195288</v>
+      </c>
+      <c r="C10" s="3">
+        <v>5.9109454490505212E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.11335660857301159</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16915422102453037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.21789879041675489</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.2999353657807983E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.65800554550737866</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1096310418058408E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6590C7-CE80-4590-9074-D181F1A66E7A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>0.37809999999999999</v>
       </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.2651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.22489999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.13189999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3070053-421D-4023-8C4A-6E68B8B876D9}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="3">
+        <v>0.46751526398622012</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7.2801652765460079E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.33093860058338931</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F11" si="0">1-(C2+D2+E2)</f>
+        <v>0.12874448266493055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.39797041393753058</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.33989105734527469</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.15840685291627679</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10373167580091791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.11386646473860799</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.5535205300906758E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.81535538895506654</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5242941005418693E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.68511427308370443</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.15078006510151051</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7.6283509469034769E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7822152345750304E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.4760618336996752</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2925178752515919</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.1196501649825237</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11177012606620917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.60702217951797577</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.2396332772840099</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7.6473696853230841E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6870846344783472E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.69834442020506027</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1420437139513806</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8.2718893446327407E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6892972397231696E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.51285896874928039</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1221573244593879</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.20609901434723529</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15888469244409642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.65837971591195288</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.9109454490505212E-2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.11335660857301159</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16915422102453037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.21789879041675489</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.2999353657807983E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.65800554550737866</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.1096310418058408E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173FCF50-0707-4E3A-86E9-DB62AC0E3085}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.69834442020506027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.68511427308370443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.65837971591195288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.60702217951797577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.51285896874928039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.4760618336996752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.46751526398622012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.39797041393753058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.37809999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.21789879041675489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.11386646473860799</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition descending="1" ref="C1:C12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099C85A5-0979-435C-98EB-868C08E93515}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.33989105734527469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.2925178752515919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.2651</v>
       </c>
-      <c r="D2" s="3">
-        <v>0.22489999999999999</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.13189999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.46751526398622012</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.2801652765460079E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.33093860058338931</v>
-      </c>
-      <c r="E3" s="3">
-        <f>1-(B3+C3+D3)</f>
-        <v>0.12874448266493055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.39797041393753058</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.33989105734527469</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.15840685291627679</v>
-      </c>
-      <c r="E4" s="3">
-        <f>1-(B4+C4+D4)</f>
-        <v>0.10373167580091791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.11386646473860799</v>
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="3">
-        <v>3.5535205300906758E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.81535538895506654</v>
-      </c>
-      <c r="E5" s="3">
-        <f>1-(B5+C5+D5)</f>
-        <v>3.5242941005418693E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.2396332772840099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.68511427308370443</v>
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>0.15078006510151051</v>
       </c>
-      <c r="D6" s="3">
-        <v>7.6283509469034769E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <f>1-(B6+C6+D6)</f>
-        <v>8.7822152345750304E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.4760618336996752</v>
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2925178752515919</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.1196501649825237</v>
-      </c>
-      <c r="E7" s="3">
-        <f>1-(B7+C7+D7)</f>
-        <v>0.11177012606620917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1420437139513806</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.60702217951797577</v>
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="3">
-        <v>0.2396332772840099</v>
-      </c>
-      <c r="D8" s="3">
-        <v>7.6473696853230841E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <f>1-(B8+C8+D8)</f>
-        <v>7.6870846344783472E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.1221573244593879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.69834442020506027</v>
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="3">
-        <v>0.1420437139513806</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8.2718893446327407E-2</v>
-      </c>
-      <c r="E9" s="3">
-        <f>1-(B9+C9+D9)</f>
-        <v>7.6892972397231696E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7.2801652765460079E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.51285896874928039</v>
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="3">
-        <v>0.1221573244593879</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.20609901434723529</v>
-      </c>
-      <c r="E10" s="3">
-        <f>1-(B10+C10+D10)</f>
-        <v>0.15888469244409642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>6.2999353657807983E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.65837971591195288</v>
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="3">
         <v>5.9109454490505212E-2</v>
       </c>
-      <c r="D11" s="3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.5535205300906758E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition descending="1" ref="C1:C12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A94ABCCB-37A0-4E6C-AC95-CBD3B95F8DFA}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.81535538895506654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.65800554550737866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.33093860058338931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.22489999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.20609901434723529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.15840685291627679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.1196501649825237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.11335660857301159</v>
       </c>
-      <c r="E11" s="3">
-        <f>1-(B11+C11+D11)</f>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3">
+        <v>8.2718893446327407E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7.6473696853230841E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7.6283509469034769E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition descending="1" ref="C1:C12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6138BFA-D200-40CC-A5D9-6FC039E6BD0E}">
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.12869999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.10369999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.16919999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.7799999999999989E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.15890000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.1118</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.13189999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7.690000000000001E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.12869999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7.690000000000001E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.1118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.10369999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.16919999999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="3">
+        <v>8.7799999999999989E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="3">
+        <v>7.690000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="3">
+        <v>7.690000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3.5200000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E1:G12">
+    <sortCondition descending="1" ref="G1:G12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093D9A78-418D-468F-907B-388D87E3F87E}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.46751526398622012</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.39797041393753058</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.11386646473860799</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.68511427308370443</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.4760618336996752</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.60702217951797577</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.69834442020506027</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.51285896874928039</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.65837971591195288</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.21789879041675489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7.2801652765460079E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.33989105734527469</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.5535205300906758E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.15078006510151051</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.2925178752515919</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2396332772840099</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.1420437139513806</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.1221573244593879</v>
+      </c>
+      <c r="J3" s="3">
+        <v>5.9109454490505212E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>6.2999353657807983E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.33093860058338931</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.15840685291627679</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.81535538895506654</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7.6283509469034769E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.1196501649825237</v>
+      </c>
+      <c r="G4" s="3">
+        <v>7.6473696853230841E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>8.2718893446327407E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.20609901434723529</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.11335660857301159</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.65800554550737866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:K5" si="0">1-(B2+B3+B4)</f>
+        <v>0.12874448266493055</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10373167580091791</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5242941005418693E-2</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7822152345750304E-2</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11177012606620917</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6870846344783472E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6892972397231696E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15888469244409642</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
         <v>0.16915422102453037</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.21789879041675489</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6.2999353657807983E-2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.65800554550737866</v>
-      </c>
-      <c r="E12" s="3">
-        <f>1-(B12+C12+D12)</f>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
         <v>6.1096310418058408E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ethnic_breakdown.xlsx
+++ b/data/ethnic_breakdown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toddf\Documents\New NSS\DA9 Excel\norris_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222AD9DA-8650-4AB0-9738-B335AAD5E680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0F4397-5189-4038-885C-A401B98614E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1485" windowWidth="18990" windowHeight="10440" tabRatio="747" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="1875" windowWidth="24750" windowHeight="12465" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLB Team Overall" sheetId="2" r:id="rId1"/>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099C85A5-0979-435C-98EB-868C08E93515}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
